--- a/media/sobsecutity_download_ur.xlsx
+++ b/media/sobsecutity_download_ur.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vladislavkateryushin/Documents/crm-ktsNew-test/media/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{830B2038-CC5A-374F-BD1C-726AE48C26A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0465D763-2C7E-0B4B-A63A-EEF24C6F4D97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="980" yWindow="920" windowWidth="28240" windowHeight="17240" xr2:uid="{CB8F83B4-7E70-AF4A-BE3F-10DE2DB9D8E6}"/>
   </bookViews>
@@ -118,7 +118,7 @@
     <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
     <numFmt numFmtId="165" formatCode="0;[Red]0"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -224,6 +224,26 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -351,7 +371,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -516,21 +536,6 @@
     <xf numFmtId="165" fontId="12" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -539,6 +544,67 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="16" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="16" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="16" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="16" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -549,12 +615,38 @@
     </xf>
     <xf numFmtId="1" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="15">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -995,15 +1087,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5A50016-7483-534E-9E88-ECAEFAED0445}">
-  <dimension ref="A1:O59"/>
+  <dimension ref="A1:O81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="C61" sqref="C61"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59:C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="4" width="10.83203125" style="69"/>
+    <col min="3" max="3" width="31.6640625" style="64" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="64"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="18" x14ac:dyDescent="0.2">
@@ -1021,11 +1114,11 @@
       <c r="J1" s="7"/>
       <c r="K1" s="7"/>
       <c r="L1" s="7"/>
-      <c r="M1" s="70" t="s">
+      <c r="M1" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="70"/>
-      <c r="O1" s="71"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="87"/>
     </row>
     <row r="2" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -1085,7 +1178,7 @@
     </row>
     <row r="5" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
+      <c r="B5" s="20"/>
       <c r="C5" s="19"/>
       <c r="D5" s="10" t="s">
         <v>6</v>
@@ -1096,13 +1189,13 @@
       <c r="H5" s="8"/>
       <c r="I5" s="13"/>
       <c r="J5" s="13"/>
-      <c r="K5" s="20"/>
+      <c r="K5" s="13"/>
       <c r="L5" s="20"/>
       <c r="M5" s="21"/>
-      <c r="N5" s="72" t="s">
+      <c r="N5" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="O5" s="72"/>
+      <c r="O5" s="88"/>
     </row>
     <row r="6" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
@@ -1124,18 +1217,18 @@
     <row r="7" spans="1:15" ht="23" x14ac:dyDescent="0.2">
       <c r="A7" s="23"/>
       <c r="B7" s="23"/>
-      <c r="C7" s="73" t="s">
+      <c r="C7" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="73"/>
-      <c r="H7" s="73"/>
-      <c r="I7" s="73"/>
-      <c r="J7" s="73"/>
-      <c r="K7" s="73"/>
-      <c r="L7" s="73"/>
+      <c r="D7" s="89"/>
+      <c r="E7" s="89"/>
+      <c r="F7" s="89"/>
+      <c r="G7" s="89"/>
+      <c r="H7" s="89"/>
+      <c r="I7" s="89"/>
+      <c r="J7" s="89"/>
+      <c r="K7" s="89"/>
+      <c r="L7" s="89"/>
       <c r="M7" s="24"/>
       <c r="N7" s="25"/>
       <c r="O7" s="26"/>
@@ -1787,8 +1880,8 @@
     <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" s="44"/>
       <c r="B44" s="44"/>
-      <c r="C44" s="67"/>
-      <c r="D44" s="68"/>
+      <c r="C44" s="62"/>
+      <c r="D44" s="63"/>
       <c r="E44" s="57"/>
       <c r="F44" s="53"/>
       <c r="G44" s="47"/>
@@ -1955,106 +2048,480 @@
       <c r="O53" s="54"/>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A54" s="23"/>
-      <c r="B54" s="23"/>
-      <c r="C54" s="65"/>
-      <c r="D54" s="65"/>
-      <c r="E54" s="62"/>
-      <c r="F54" s="66"/>
-      <c r="G54" s="23"/>
-      <c r="H54" s="63"/>
-      <c r="I54" s="64"/>
-      <c r="J54" s="64"/>
-      <c r="K54" s="64"/>
-      <c r="L54" s="64"/>
-      <c r="M54" s="23"/>
-      <c r="N54" s="25"/>
-      <c r="O54" s="26"/>
+      <c r="A54" s="65"/>
+      <c r="B54" s="65"/>
+      <c r="C54" s="66"/>
+      <c r="D54" s="66"/>
+      <c r="E54" s="67"/>
+      <c r="F54" s="68"/>
+      <c r="G54" s="69"/>
+      <c r="H54" s="70"/>
+      <c r="I54" s="71"/>
+      <c r="J54" s="71"/>
+      <c r="K54" s="71"/>
+      <c r="L54" s="71"/>
+      <c r="M54" s="72"/>
+      <c r="N54" s="73"/>
+      <c r="O54" s="74"/>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A55" s="23"/>
-      <c r="B55" s="23"/>
-      <c r="C55" s="65"/>
-      <c r="D55" s="65"/>
-      <c r="E55" s="62"/>
-      <c r="F55" s="66"/>
-      <c r="G55" s="23"/>
-      <c r="H55" s="63"/>
-      <c r="I55" s="64"/>
-      <c r="J55" s="64"/>
-      <c r="K55" s="64"/>
-      <c r="L55" s="64"/>
-      <c r="M55" s="23"/>
-      <c r="N55" s="25"/>
-      <c r="O55" s="26"/>
+      <c r="A55" s="65"/>
+      <c r="B55" s="65"/>
+      <c r="C55" s="66"/>
+      <c r="D55" s="66"/>
+      <c r="E55" s="67"/>
+      <c r="F55" s="68"/>
+      <c r="G55" s="69"/>
+      <c r="H55" s="70"/>
+      <c r="I55" s="71"/>
+      <c r="J55" s="71"/>
+      <c r="K55" s="71"/>
+      <c r="L55" s="71"/>
+      <c r="M55" s="72"/>
+      <c r="N55" s="73"/>
+      <c r="O55" s="74"/>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A56" s="23"/>
-      <c r="B56" s="23"/>
+      <c r="A56" s="65"/>
+      <c r="B56" s="65"/>
       <c r="C56" s="65"/>
       <c r="D56" s="65"/>
-      <c r="E56" s="62"/>
-      <c r="F56" s="66"/>
-      <c r="G56" s="23"/>
-      <c r="H56" s="63"/>
-      <c r="I56" s="64"/>
-      <c r="J56" s="64"/>
-      <c r="K56" s="64"/>
-      <c r="L56" s="64"/>
-      <c r="M56" s="23"/>
-      <c r="N56" s="25"/>
-      <c r="O56" s="26"/>
+      <c r="E56" s="75"/>
+      <c r="F56" s="68"/>
+      <c r="G56" s="69"/>
+      <c r="H56" s="70"/>
+      <c r="I56" s="71"/>
+      <c r="J56" s="71"/>
+      <c r="K56" s="71"/>
+      <c r="L56" s="71"/>
+      <c r="M56" s="72"/>
+      <c r="N56" s="76"/>
+      <c r="O56" s="74"/>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A57" s="23"/>
-      <c r="B57" s="23"/>
-      <c r="C57" s="65"/>
-      <c r="D57" s="65"/>
-      <c r="E57" s="62"/>
-      <c r="F57" s="66"/>
-      <c r="G57" s="23"/>
-      <c r="H57" s="63"/>
-      <c r="I57" s="64"/>
-      <c r="J57" s="64"/>
-      <c r="K57" s="64"/>
-      <c r="L57" s="64"/>
-      <c r="M57" s="23"/>
-      <c r="N57" s="25"/>
-      <c r="O57" s="26"/>
+      <c r="A57" s="77"/>
+      <c r="B57" s="77"/>
+      <c r="C57" s="82"/>
+      <c r="D57" s="82"/>
+      <c r="E57" s="85"/>
+      <c r="F57" s="78"/>
+      <c r="G57" s="77"/>
+      <c r="H57" s="79"/>
+      <c r="I57" s="80"/>
+      <c r="J57" s="80"/>
+      <c r="K57" s="80"/>
+      <c r="L57" s="80"/>
+      <c r="M57" s="77"/>
+      <c r="N57" s="81"/>
+      <c r="O57" s="82"/>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A58" s="23"/>
-      <c r="B58" s="23"/>
-      <c r="C58" s="65"/>
-      <c r="D58" s="65"/>
-      <c r="E58" s="62"/>
-      <c r="F58" s="66"/>
-      <c r="G58" s="23"/>
-      <c r="H58" s="63"/>
-      <c r="I58" s="64"/>
-      <c r="J58" s="64"/>
-      <c r="K58" s="64"/>
-      <c r="L58" s="64"/>
-      <c r="M58" s="23"/>
-      <c r="N58" s="25"/>
-      <c r="O58" s="26"/>
+      <c r="A58" s="77"/>
+      <c r="B58" s="77"/>
+      <c r="C58" s="82"/>
+      <c r="D58" s="82"/>
+      <c r="E58" s="85"/>
+      <c r="F58" s="78"/>
+      <c r="G58" s="77"/>
+      <c r="H58" s="79"/>
+      <c r="I58" s="80"/>
+      <c r="J58" s="80"/>
+      <c r="K58" s="80"/>
+      <c r="L58" s="80"/>
+      <c r="M58" s="77"/>
+      <c r="N58" s="81"/>
+      <c r="O58" s="82"/>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A59" s="23"/>
-      <c r="B59" s="23"/>
-      <c r="C59" s="65"/>
-      <c r="D59" s="65"/>
-      <c r="E59" s="62"/>
-      <c r="F59" s="66"/>
-      <c r="G59" s="23"/>
-      <c r="H59" s="63"/>
-      <c r="I59" s="64"/>
-      <c r="J59" s="64"/>
-      <c r="K59" s="64"/>
-      <c r="L59" s="64"/>
-      <c r="M59" s="23"/>
-      <c r="N59" s="25"/>
-      <c r="O59" s="26"/>
+      <c r="A59" s="77"/>
+      <c r="B59" s="77"/>
+      <c r="C59" s="90"/>
+      <c r="D59" s="82"/>
+      <c r="E59" s="85"/>
+      <c r="F59" s="78"/>
+      <c r="G59" s="77"/>
+      <c r="H59" s="79"/>
+      <c r="I59" s="80"/>
+      <c r="J59" s="80"/>
+      <c r="K59" s="80"/>
+      <c r="L59" s="80"/>
+      <c r="M59" s="77"/>
+      <c r="N59" s="81"/>
+      <c r="O59" s="82"/>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A60" s="83"/>
+      <c r="B60" s="83"/>
+      <c r="C60" s="91"/>
+      <c r="D60" s="84"/>
+      <c r="E60" s="83"/>
+      <c r="F60" s="83"/>
+      <c r="G60" s="83"/>
+      <c r="H60" s="83"/>
+      <c r="I60" s="83"/>
+      <c r="J60" s="83"/>
+      <c r="K60" s="83"/>
+      <c r="L60" s="83"/>
+      <c r="M60" s="83"/>
+      <c r="N60" s="83"/>
+      <c r="O60" s="83"/>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A61" s="83"/>
+      <c r="B61" s="83"/>
+      <c r="C61" s="91"/>
+      <c r="D61" s="83"/>
+      <c r="E61" s="83"/>
+      <c r="F61" s="83"/>
+      <c r="G61" s="83"/>
+      <c r="H61" s="83"/>
+      <c r="I61" s="83"/>
+      <c r="J61" s="83"/>
+      <c r="K61" s="83"/>
+      <c r="L61" s="83"/>
+      <c r="M61" s="83"/>
+      <c r="N61" s="83"/>
+      <c r="O61" s="83"/>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A62" s="83"/>
+      <c r="B62" s="83"/>
+      <c r="C62" s="91"/>
+      <c r="D62" s="84"/>
+      <c r="E62" s="83"/>
+      <c r="F62" s="83"/>
+      <c r="G62" s="83"/>
+      <c r="H62" s="83"/>
+      <c r="I62" s="83"/>
+      <c r="J62" s="83"/>
+      <c r="K62" s="83"/>
+      <c r="L62" s="83"/>
+      <c r="M62" s="83"/>
+      <c r="N62" s="83"/>
+      <c r="O62" s="83"/>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A63" s="83"/>
+      <c r="B63" s="83"/>
+      <c r="C63" s="91"/>
+      <c r="D63" s="83"/>
+      <c r="E63" s="83"/>
+      <c r="F63" s="83"/>
+      <c r="G63" s="83"/>
+      <c r="H63" s="83"/>
+      <c r="I63" s="83"/>
+      <c r="J63" s="83"/>
+      <c r="K63" s="83"/>
+      <c r="L63" s="83"/>
+      <c r="M63" s="83"/>
+      <c r="N63" s="83"/>
+      <c r="O63" s="83"/>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A64" s="83"/>
+      <c r="B64" s="83"/>
+      <c r="C64" s="91"/>
+      <c r="D64" s="84"/>
+      <c r="E64" s="83"/>
+      <c r="F64" s="83"/>
+      <c r="G64" s="83"/>
+      <c r="H64" s="83"/>
+      <c r="I64" s="83"/>
+      <c r="J64" s="83"/>
+      <c r="K64" s="83"/>
+      <c r="L64" s="83"/>
+      <c r="M64" s="83"/>
+      <c r="N64" s="83"/>
+      <c r="O64" s="83"/>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A65" s="83"/>
+      <c r="B65" s="83"/>
+      <c r="C65" s="91"/>
+      <c r="D65" s="84"/>
+      <c r="E65" s="83"/>
+      <c r="F65" s="83"/>
+      <c r="G65" s="83"/>
+      <c r="H65" s="83"/>
+      <c r="I65" s="83"/>
+      <c r="J65" s="83"/>
+      <c r="K65" s="83"/>
+      <c r="L65" s="83"/>
+      <c r="M65" s="83"/>
+      <c r="N65" s="83"/>
+      <c r="O65" s="83"/>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A66" s="83"/>
+      <c r="B66" s="83"/>
+      <c r="C66" s="91"/>
+      <c r="D66" s="84"/>
+      <c r="E66" s="83"/>
+      <c r="F66" s="83"/>
+      <c r="G66" s="83"/>
+      <c r="H66" s="83"/>
+      <c r="I66" s="83"/>
+      <c r="J66" s="83"/>
+      <c r="K66" s="83"/>
+      <c r="L66" s="83"/>
+      <c r="M66" s="83"/>
+      <c r="N66" s="83"/>
+      <c r="O66" s="83"/>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A67" s="83"/>
+      <c r="B67" s="83"/>
+      <c r="C67" s="91"/>
+      <c r="D67" s="84"/>
+      <c r="E67" s="83"/>
+      <c r="F67" s="83"/>
+      <c r="G67" s="83"/>
+      <c r="H67" s="83"/>
+      <c r="I67" s="83"/>
+      <c r="J67" s="83"/>
+      <c r="K67" s="83"/>
+      <c r="L67" s="83"/>
+      <c r="M67" s="83"/>
+      <c r="N67" s="83"/>
+      <c r="O67" s="83"/>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A68" s="83"/>
+      <c r="B68" s="83"/>
+      <c r="C68" s="84"/>
+      <c r="D68" s="84"/>
+      <c r="E68" s="83"/>
+      <c r="F68" s="83"/>
+      <c r="G68" s="83"/>
+      <c r="H68" s="83"/>
+      <c r="I68" s="83"/>
+      <c r="J68" s="83"/>
+      <c r="K68" s="83"/>
+      <c r="L68" s="83"/>
+      <c r="M68" s="83"/>
+      <c r="N68" s="83"/>
+      <c r="O68" s="83"/>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A69" s="83"/>
+      <c r="B69" s="83"/>
+      <c r="C69" s="84"/>
+      <c r="D69" s="84"/>
+      <c r="E69" s="83"/>
+      <c r="F69" s="83"/>
+      <c r="G69" s="83"/>
+      <c r="H69" s="83"/>
+      <c r="I69" s="83"/>
+      <c r="J69" s="83"/>
+      <c r="K69" s="83"/>
+      <c r="L69" s="83"/>
+      <c r="M69" s="83"/>
+      <c r="N69" s="83"/>
+      <c r="O69" s="83"/>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A70" s="83"/>
+      <c r="B70" s="83"/>
+      <c r="C70" s="84"/>
+      <c r="D70" s="84"/>
+      <c r="E70" s="83"/>
+      <c r="F70" s="83"/>
+      <c r="G70" s="83"/>
+      <c r="H70" s="83"/>
+      <c r="I70" s="83"/>
+      <c r="J70" s="83"/>
+      <c r="K70" s="83"/>
+      <c r="L70" s="83"/>
+      <c r="M70" s="83"/>
+      <c r="N70" s="83"/>
+      <c r="O70" s="83"/>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A71" s="83"/>
+      <c r="B71" s="83"/>
+      <c r="C71" s="84"/>
+      <c r="D71" s="84"/>
+      <c r="E71" s="83"/>
+      <c r="F71" s="83"/>
+      <c r="G71" s="83"/>
+      <c r="H71" s="83"/>
+      <c r="I71" s="83"/>
+      <c r="J71" s="83"/>
+      <c r="K71" s="83"/>
+      <c r="L71" s="83"/>
+      <c r="M71" s="83"/>
+      <c r="N71" s="83"/>
+      <c r="O71" s="83"/>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A72" s="83"/>
+      <c r="B72" s="83"/>
+      <c r="C72" s="84"/>
+      <c r="D72" s="84"/>
+      <c r="E72" s="83"/>
+      <c r="F72" s="83"/>
+      <c r="G72" s="83"/>
+      <c r="H72" s="83"/>
+      <c r="I72" s="83"/>
+      <c r="J72" s="83"/>
+      <c r="K72" s="83"/>
+      <c r="L72" s="83"/>
+      <c r="M72" s="83"/>
+      <c r="N72" s="83"/>
+      <c r="O72" s="83"/>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A73" s="83"/>
+      <c r="B73" s="83"/>
+      <c r="C73" s="84"/>
+      <c r="D73" s="84"/>
+      <c r="E73" s="83"/>
+      <c r="F73" s="83"/>
+      <c r="G73" s="83"/>
+      <c r="H73" s="83"/>
+      <c r="I73" s="83"/>
+      <c r="J73" s="83"/>
+      <c r="K73" s="83"/>
+      <c r="L73" s="83"/>
+      <c r="M73" s="83"/>
+      <c r="N73" s="83"/>
+      <c r="O73" s="83"/>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A74" s="83"/>
+      <c r="B74" s="83"/>
+      <c r="C74" s="84"/>
+      <c r="D74" s="84"/>
+      <c r="E74" s="83"/>
+      <c r="F74" s="83"/>
+      <c r="G74" s="83"/>
+      <c r="H74" s="83"/>
+      <c r="I74" s="83"/>
+      <c r="J74" s="83"/>
+      <c r="K74" s="83"/>
+      <c r="L74" s="83"/>
+      <c r="M74" s="83"/>
+      <c r="N74" s="83"/>
+      <c r="O74" s="83"/>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A75" s="83"/>
+      <c r="B75" s="83"/>
+      <c r="C75" s="84"/>
+      <c r="D75" s="84"/>
+      <c r="E75" s="83"/>
+      <c r="F75" s="83"/>
+      <c r="G75" s="83"/>
+      <c r="H75" s="83"/>
+      <c r="I75" s="83"/>
+      <c r="J75" s="83"/>
+      <c r="K75" s="83"/>
+      <c r="L75" s="83"/>
+      <c r="M75" s="83"/>
+      <c r="N75" s="83"/>
+      <c r="O75" s="83"/>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A76" s="83"/>
+      <c r="B76" s="83"/>
+      <c r="C76" s="84"/>
+      <c r="D76" s="84"/>
+      <c r="E76" s="83"/>
+      <c r="F76" s="83"/>
+      <c r="G76" s="83"/>
+      <c r="H76" s="83"/>
+      <c r="I76" s="83"/>
+      <c r="J76" s="83"/>
+      <c r="K76" s="83"/>
+      <c r="L76" s="83"/>
+      <c r="M76" s="83"/>
+      <c r="N76" s="83"/>
+      <c r="O76" s="83"/>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A77" s="83"/>
+      <c r="B77" s="83"/>
+      <c r="C77" s="84"/>
+      <c r="D77" s="84"/>
+      <c r="E77" s="83"/>
+      <c r="F77" s="83"/>
+      <c r="G77" s="83"/>
+      <c r="H77" s="83"/>
+      <c r="I77" s="83"/>
+      <c r="J77" s="83"/>
+      <c r="K77" s="83"/>
+      <c r="L77" s="83"/>
+      <c r="M77" s="83"/>
+      <c r="N77" s="83"/>
+      <c r="O77" s="83"/>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A78" s="83"/>
+      <c r="B78" s="83"/>
+      <c r="C78" s="84"/>
+      <c r="D78" s="84"/>
+      <c r="E78" s="83"/>
+      <c r="F78" s="83"/>
+      <c r="G78" s="83"/>
+      <c r="H78" s="83"/>
+      <c r="I78" s="83"/>
+      <c r="J78" s="83"/>
+      <c r="K78" s="83"/>
+      <c r="L78" s="83"/>
+      <c r="M78" s="83"/>
+      <c r="N78" s="83"/>
+      <c r="O78" s="83"/>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A79" s="83"/>
+      <c r="B79" s="83"/>
+      <c r="C79" s="84"/>
+      <c r="D79" s="84"/>
+      <c r="E79" s="83"/>
+      <c r="F79" s="83"/>
+      <c r="G79" s="83"/>
+      <c r="H79" s="83"/>
+      <c r="I79" s="83"/>
+      <c r="J79" s="83"/>
+      <c r="K79" s="83"/>
+      <c r="L79" s="83"/>
+      <c r="M79" s="83"/>
+      <c r="N79" s="83"/>
+      <c r="O79" s="83"/>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A80" s="83"/>
+      <c r="B80" s="83"/>
+      <c r="C80" s="84"/>
+      <c r="D80" s="84"/>
+      <c r="E80" s="83"/>
+      <c r="F80" s="83"/>
+      <c r="G80" s="83"/>
+      <c r="H80" s="83"/>
+      <c r="I80" s="83"/>
+      <c r="J80" s="83"/>
+      <c r="K80" s="83"/>
+      <c r="L80" s="83"/>
+      <c r="M80" s="83"/>
+      <c r="N80" s="83"/>
+      <c r="O80" s="83"/>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A81" s="83"/>
+      <c r="B81" s="83"/>
+      <c r="C81" s="84"/>
+      <c r="D81" s="84"/>
+      <c r="E81" s="83"/>
+      <c r="F81" s="83"/>
+      <c r="G81" s="83"/>
+      <c r="H81" s="83"/>
+      <c r="I81" s="83"/>
+      <c r="J81" s="83"/>
+      <c r="K81" s="83"/>
+      <c r="L81" s="83"/>
+      <c r="M81" s="83"/>
+      <c r="N81" s="83"/>
+      <c r="O81" s="83"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2063,43 +2530,49 @@
     <mergeCell ref="C7:L7"/>
   </mergeCells>
   <conditionalFormatting sqref="A18">
-    <cfRule type="duplicateValues" dxfId="12" priority="17" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="19" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21">
-    <cfRule type="duplicateValues" dxfId="11" priority="16" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="18" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31">
-    <cfRule type="duplicateValues" dxfId="10" priority="18" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="20" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37">
-    <cfRule type="duplicateValues" dxfId="9" priority="15" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="17" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49">
-    <cfRule type="duplicateValues" dxfId="8" priority="14" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="16" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50:A52 A38:A48 A32:A36 A19:A20 A10:A17 A22:A30">
+    <cfRule type="duplicateValues" dxfId="9" priority="27" stopIfTrue="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A54:A55">
+    <cfRule type="duplicateValues" dxfId="8" priority="2" stopIfTrue="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A53:B53 A1:B4 A6:B9 A5 A56:B59">
     <cfRule type="duplicateValues" dxfId="7" priority="25" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A53:B59 A1:B9">
+  <conditionalFormatting sqref="B18">
     <cfRule type="duplicateValues" dxfId="6" priority="23" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B18">
-    <cfRule type="duplicateValues" dxfId="5" priority="21" stopIfTrue="1"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B21">
-    <cfRule type="duplicateValues" dxfId="4" priority="20" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="22" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31">
-    <cfRule type="duplicateValues" dxfId="3" priority="22" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="24" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37">
-    <cfRule type="duplicateValues" dxfId="2" priority="19" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="21" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B49">
-    <cfRule type="duplicateValues" dxfId="1" priority="13" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="15" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B50:B52 B38:B48 B32:B36 B19:B20 B10:B17 B22:B30">
-    <cfRule type="duplicateValues" dxfId="0" priority="24" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="26" stopIfTrue="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B54:B55">
+    <cfRule type="duplicateValues" dxfId="0" priority="1" stopIfTrue="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/media/sobsecutity_download_ur.xlsx
+++ b/media/sobsecutity_download_ur.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vladislavkateryushin/Documents/crm-ktsNew-test/media/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0465D763-2C7E-0B4B-A63A-EEF24C6F4D97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D959013-6915-B040-B811-75C4D8A02804}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="980" yWindow="920" windowWidth="28240" windowHeight="17240" xr2:uid="{CB8F83B4-7E70-AF4A-BE3F-10DE2DB9D8E6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t xml:space="preserve"> "Утверждаю"</t>
   </si>
@@ -60,9 +60,6 @@
   </si>
   <si>
     <t>Медведев Н.Н.</t>
-  </si>
-  <si>
-    <t>АКТ сверки по юридическим лицам за май 2024 г.</t>
   </si>
   <si>
     <t>№ объекта</t>
@@ -371,7 +368,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -420,18 +417,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -606,6 +591,12 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -615,12 +606,6 @@
     </xf>
     <xf numFmtId="1" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1089,14 +1074,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5A50016-7483-534E-9E88-ECAEFAED0445}">
   <dimension ref="A1:O81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="C59" sqref="C59:C67"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="31.6640625" style="64" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="64"/>
+    <col min="3" max="3" width="31.6640625" style="60" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="60"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="18" x14ac:dyDescent="0.2">
@@ -1114,11 +1099,11 @@
       <c r="J1" s="7"/>
       <c r="K1" s="7"/>
       <c r="L1" s="7"/>
-      <c r="M1" s="86" t="s">
+      <c r="M1" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="86"/>
-      <c r="O1" s="87"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="85"/>
     </row>
     <row r="2" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -1192,10 +1177,10 @@
       <c r="K5" s="13"/>
       <c r="L5" s="20"/>
       <c r="M5" s="21"/>
-      <c r="N5" s="88" t="s">
+      <c r="N5" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="O5" s="88"/>
+      <c r="O5" s="86"/>
     </row>
     <row r="6" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
@@ -1215,1319 +1200,1315 @@
       <c r="O6" s="15"/>
     </row>
     <row r="7" spans="1:15" ht="23" x14ac:dyDescent="0.2">
-      <c r="A7" s="23"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="89" t="s">
+      <c r="A7" s="87"/>
+      <c r="B7" s="87"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="87"/>
+      <c r="G7" s="87"/>
+      <c r="H7" s="87"/>
+      <c r="I7" s="87"/>
+      <c r="J7" s="87"/>
+      <c r="K7" s="87"/>
+      <c r="L7" s="87"/>
+      <c r="M7" s="87"/>
+      <c r="N7" s="87"/>
+      <c r="O7" s="87"/>
+    </row>
+    <row r="8" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="23"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="30"/>
+    </row>
+    <row r="9" spans="1:15" ht="81" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="89"/>
-      <c r="E7" s="89"/>
-      <c r="F7" s="89"/>
-      <c r="G7" s="89"/>
-      <c r="H7" s="89"/>
-      <c r="I7" s="89"/>
-      <c r="J7" s="89"/>
-      <c r="K7" s="89"/>
-      <c r="L7" s="89"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="25"/>
-      <c r="O7" s="26"/>
-    </row>
-    <row r="8" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="27"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="32"/>
-      <c r="K8" s="32"/>
-      <c r="L8" s="32"/>
-      <c r="M8" s="27"/>
-      <c r="N8" s="33">
-        <v>31</v>
-      </c>
-      <c r="O8" s="34"/>
-    </row>
-    <row r="9" spans="1:15" ht="81" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="35" t="s">
+      <c r="B9" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="35" t="s">
+      <c r="C9" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="36" t="s">
+      <c r="D9" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="36" t="s">
+      <c r="E9" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="37" t="s">
+      <c r="F9" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="38" t="s">
+      <c r="G9" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="39" t="s">
+      <c r="H9" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="40" t="s">
+      <c r="I9" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="41" t="s">
+      <c r="J9" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="J9" s="41" t="s">
+      <c r="K9" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="K9" s="41" t="s">
+      <c r="L9" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="L9" s="41" t="s">
+      <c r="M9" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="M9" s="39" t="s">
+      <c r="N9" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="N9" s="42" t="s">
+      <c r="O9" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="O9" s="43" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A10" s="44"/>
-      <c r="B10" s="44"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="48"/>
-      <c r="I10" s="49"/>
-      <c r="J10" s="49"/>
-      <c r="K10" s="49"/>
-      <c r="L10" s="49"/>
-      <c r="M10" s="50"/>
-      <c r="N10" s="51"/>
-      <c r="O10" s="52"/>
+      <c r="A10" s="40"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="45"/>
+      <c r="J10" s="45"/>
+      <c r="K10" s="45"/>
+      <c r="L10" s="45"/>
+      <c r="M10" s="46"/>
+      <c r="N10" s="47"/>
+      <c r="O10" s="48"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11" s="45"/>
-      <c r="B11" s="45"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="47"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="49"/>
-      <c r="K11" s="49"/>
-      <c r="L11" s="49"/>
-      <c r="M11" s="50"/>
-      <c r="N11" s="51"/>
-      <c r="O11" s="54"/>
+      <c r="A11" s="41"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="45"/>
+      <c r="K11" s="45"/>
+      <c r="L11" s="45"/>
+      <c r="M11" s="46"/>
+      <c r="N11" s="47"/>
+      <c r="O11" s="50"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A12" s="45"/>
-      <c r="B12" s="45"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="55"/>
-      <c r="G12" s="47"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="49"/>
-      <c r="J12" s="49"/>
-      <c r="K12" s="49"/>
-      <c r="L12" s="49"/>
-      <c r="M12" s="50"/>
-      <c r="N12" s="51"/>
-      <c r="O12" s="54"/>
+      <c r="A12" s="41"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="45"/>
+      <c r="J12" s="45"/>
+      <c r="K12" s="45"/>
+      <c r="L12" s="45"/>
+      <c r="M12" s="46"/>
+      <c r="N12" s="47"/>
+      <c r="O12" s="50"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A13" s="45"/>
-      <c r="B13" s="45"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="56"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="49"/>
-      <c r="K13" s="49"/>
-      <c r="L13" s="49"/>
-      <c r="M13" s="50"/>
-      <c r="N13" s="51"/>
-      <c r="O13" s="54"/>
+      <c r="A13" s="41"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="45"/>
+      <c r="K13" s="45"/>
+      <c r="L13" s="45"/>
+      <c r="M13" s="46"/>
+      <c r="N13" s="47"/>
+      <c r="O13" s="50"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A14" s="45"/>
-      <c r="B14" s="45"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="49"/>
-      <c r="J14" s="49"/>
-      <c r="K14" s="49"/>
-      <c r="L14" s="49"/>
-      <c r="M14" s="50"/>
-      <c r="N14" s="51"/>
-      <c r="O14" s="54"/>
+      <c r="A14" s="41"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="45"/>
+      <c r="K14" s="45"/>
+      <c r="L14" s="45"/>
+      <c r="M14" s="46"/>
+      <c r="N14" s="47"/>
+      <c r="O14" s="50"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A15" s="45"/>
-      <c r="B15" s="45"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="53"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="49"/>
-      <c r="J15" s="49"/>
-      <c r="K15" s="49"/>
-      <c r="L15" s="49"/>
-      <c r="M15" s="50"/>
-      <c r="N15" s="51"/>
-      <c r="O15" s="54"/>
+      <c r="A15" s="41"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="45"/>
+      <c r="J15" s="45"/>
+      <c r="K15" s="45"/>
+      <c r="L15" s="45"/>
+      <c r="M15" s="46"/>
+      <c r="N15" s="47"/>
+      <c r="O15" s="50"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A16" s="45"/>
-      <c r="B16" s="45"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="55"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="49"/>
-      <c r="J16" s="49"/>
-      <c r="K16" s="49"/>
-      <c r="L16" s="49"/>
-      <c r="M16" s="50"/>
-      <c r="N16" s="51"/>
-      <c r="O16" s="54"/>
+      <c r="A16" s="41"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="45"/>
+      <c r="K16" s="45"/>
+      <c r="L16" s="45"/>
+      <c r="M16" s="46"/>
+      <c r="N16" s="47"/>
+      <c r="O16" s="50"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A17" s="45"/>
-      <c r="B17" s="45"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="53"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="49"/>
-      <c r="J17" s="49"/>
-      <c r="K17" s="49"/>
-      <c r="L17" s="49"/>
-      <c r="M17" s="50"/>
-      <c r="N17" s="51"/>
-      <c r="O17" s="54"/>
+      <c r="A17" s="41"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="45"/>
+      <c r="J17" s="45"/>
+      <c r="K17" s="45"/>
+      <c r="L17" s="45"/>
+      <c r="M17" s="46"/>
+      <c r="N17" s="47"/>
+      <c r="O17" s="50"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A18" s="45"/>
-      <c r="B18" s="45"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="55"/>
-      <c r="G18" s="47"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="49"/>
-      <c r="J18" s="49"/>
-      <c r="K18" s="49"/>
-      <c r="L18" s="49"/>
-      <c r="M18" s="50"/>
-      <c r="N18" s="51"/>
-      <c r="O18" s="54"/>
+      <c r="A18" s="41"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="45"/>
+      <c r="J18" s="45"/>
+      <c r="K18" s="45"/>
+      <c r="L18" s="45"/>
+      <c r="M18" s="46"/>
+      <c r="N18" s="47"/>
+      <c r="O18" s="50"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A19" s="45"/>
-      <c r="B19" s="45"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="47"/>
-      <c r="H19" s="48"/>
-      <c r="I19" s="49"/>
-      <c r="J19" s="49"/>
-      <c r="K19" s="49"/>
-      <c r="L19" s="49"/>
-      <c r="M19" s="50"/>
-      <c r="N19" s="51"/>
-      <c r="O19" s="54"/>
+      <c r="A19" s="41"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="45"/>
+      <c r="K19" s="45"/>
+      <c r="L19" s="45"/>
+      <c r="M19" s="46"/>
+      <c r="N19" s="47"/>
+      <c r="O19" s="50"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A20" s="45"/>
-      <c r="B20" s="45"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="55"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="48"/>
-      <c r="I20" s="49"/>
-      <c r="J20" s="49"/>
-      <c r="K20" s="49"/>
-      <c r="L20" s="49"/>
-      <c r="M20" s="50"/>
-      <c r="N20" s="51"/>
-      <c r="O20" s="54"/>
+      <c r="A20" s="41"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="45"/>
+      <c r="J20" s="45"/>
+      <c r="K20" s="45"/>
+      <c r="L20" s="45"/>
+      <c r="M20" s="46"/>
+      <c r="N20" s="47"/>
+      <c r="O20" s="50"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A21" s="45"/>
-      <c r="B21" s="45"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="53"/>
-      <c r="G21" s="47"/>
-      <c r="H21" s="48"/>
-      <c r="I21" s="49"/>
-      <c r="J21" s="49"/>
-      <c r="K21" s="49"/>
-      <c r="L21" s="49"/>
-      <c r="M21" s="50"/>
-      <c r="N21" s="51"/>
-      <c r="O21" s="54"/>
+      <c r="A21" s="41"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="45"/>
+      <c r="J21" s="45"/>
+      <c r="K21" s="45"/>
+      <c r="L21" s="45"/>
+      <c r="M21" s="46"/>
+      <c r="N21" s="47"/>
+      <c r="O21" s="50"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A22" s="45"/>
-      <c r="B22" s="45"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="53"/>
-      <c r="G22" s="47"/>
-      <c r="H22" s="48"/>
-      <c r="I22" s="49"/>
-      <c r="J22" s="49"/>
-      <c r="K22" s="49"/>
-      <c r="L22" s="49"/>
-      <c r="M22" s="50"/>
-      <c r="N22" s="51"/>
-      <c r="O22" s="54"/>
+      <c r="A22" s="41"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="45"/>
+      <c r="J22" s="45"/>
+      <c r="K22" s="45"/>
+      <c r="L22" s="45"/>
+      <c r="M22" s="46"/>
+      <c r="N22" s="47"/>
+      <c r="O22" s="50"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A23" s="45"/>
-      <c r="B23" s="45"/>
-      <c r="C23" s="45"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="47"/>
-      <c r="H23" s="48"/>
-      <c r="I23" s="49"/>
-      <c r="J23" s="49"/>
-      <c r="K23" s="49"/>
-      <c r="L23" s="49"/>
-      <c r="M23" s="50"/>
-      <c r="N23" s="51"/>
-      <c r="O23" s="54"/>
+      <c r="A23" s="41"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="49"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="45"/>
+      <c r="J23" s="45"/>
+      <c r="K23" s="45"/>
+      <c r="L23" s="45"/>
+      <c r="M23" s="46"/>
+      <c r="N23" s="47"/>
+      <c r="O23" s="50"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A24" s="45"/>
-      <c r="B24" s="45"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="45"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="47"/>
-      <c r="H24" s="48"/>
-      <c r="I24" s="49"/>
-      <c r="J24" s="49"/>
-      <c r="K24" s="49"/>
-      <c r="L24" s="49"/>
-      <c r="M24" s="50"/>
-      <c r="N24" s="51"/>
-      <c r="O24" s="54"/>
+      <c r="A24" s="41"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="45"/>
+      <c r="J24" s="45"/>
+      <c r="K24" s="45"/>
+      <c r="L24" s="45"/>
+      <c r="M24" s="46"/>
+      <c r="N24" s="47"/>
+      <c r="O24" s="50"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A25" s="45"/>
-      <c r="B25" s="45"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="45"/>
-      <c r="F25" s="53"/>
-      <c r="G25" s="47"/>
-      <c r="H25" s="48"/>
-      <c r="I25" s="49"/>
-      <c r="J25" s="49"/>
-      <c r="K25" s="49"/>
-      <c r="L25" s="49"/>
-      <c r="M25" s="50"/>
-      <c r="N25" s="51"/>
-      <c r="O25" s="54"/>
+      <c r="A25" s="41"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="43"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="45"/>
+      <c r="J25" s="45"/>
+      <c r="K25" s="45"/>
+      <c r="L25" s="45"/>
+      <c r="M25" s="46"/>
+      <c r="N25" s="47"/>
+      <c r="O25" s="50"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A26" s="45"/>
-      <c r="B26" s="45"/>
-      <c r="C26" s="45"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="53"/>
-      <c r="G26" s="47"/>
-      <c r="H26" s="48"/>
-      <c r="I26" s="49"/>
-      <c r="J26" s="49"/>
-      <c r="K26" s="49"/>
-      <c r="L26" s="49"/>
-      <c r="M26" s="50"/>
-      <c r="N26" s="51"/>
-      <c r="O26" s="54"/>
+      <c r="A26" s="41"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="49"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="45"/>
+      <c r="J26" s="45"/>
+      <c r="K26" s="45"/>
+      <c r="L26" s="45"/>
+      <c r="M26" s="46"/>
+      <c r="N26" s="47"/>
+      <c r="O26" s="50"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A27" s="45"/>
-      <c r="B27" s="45"/>
-      <c r="C27" s="45"/>
-      <c r="D27" s="45"/>
-      <c r="E27" s="45"/>
-      <c r="F27" s="53"/>
-      <c r="G27" s="47"/>
-      <c r="H27" s="48"/>
-      <c r="I27" s="49"/>
-      <c r="J27" s="49"/>
-      <c r="K27" s="49"/>
-      <c r="L27" s="49"/>
-      <c r="M27" s="50"/>
-      <c r="N27" s="51"/>
-      <c r="O27" s="54"/>
+      <c r="A27" s="41"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="49"/>
+      <c r="G27" s="43"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="45"/>
+      <c r="J27" s="45"/>
+      <c r="K27" s="45"/>
+      <c r="L27" s="45"/>
+      <c r="M27" s="46"/>
+      <c r="N27" s="47"/>
+      <c r="O27" s="50"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A28" s="45"/>
-      <c r="B28" s="45"/>
-      <c r="C28" s="45"/>
-      <c r="D28" s="45"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="53"/>
-      <c r="G28" s="47"/>
-      <c r="H28" s="48"/>
-      <c r="I28" s="49"/>
-      <c r="J28" s="49"/>
-      <c r="K28" s="49"/>
-      <c r="L28" s="49"/>
-      <c r="M28" s="50"/>
-      <c r="N28" s="51"/>
-      <c r="O28" s="54"/>
+      <c r="A28" s="41"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="44"/>
+      <c r="I28" s="45"/>
+      <c r="J28" s="45"/>
+      <c r="K28" s="45"/>
+      <c r="L28" s="45"/>
+      <c r="M28" s="46"/>
+      <c r="N28" s="47"/>
+      <c r="O28" s="50"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A29" s="45"/>
-      <c r="B29" s="45"/>
-      <c r="C29" s="45"/>
-      <c r="D29" s="45"/>
-      <c r="E29" s="45"/>
-      <c r="F29" s="55"/>
-      <c r="G29" s="47"/>
-      <c r="H29" s="48"/>
-      <c r="I29" s="49"/>
-      <c r="J29" s="49"/>
-      <c r="K29" s="49"/>
-      <c r="L29" s="49"/>
-      <c r="M29" s="50"/>
-      <c r="N29" s="51"/>
-      <c r="O29" s="54"/>
+      <c r="A29" s="41"/>
+      <c r="B29" s="41"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="51"/>
+      <c r="G29" s="43"/>
+      <c r="H29" s="44"/>
+      <c r="I29" s="45"/>
+      <c r="J29" s="45"/>
+      <c r="K29" s="45"/>
+      <c r="L29" s="45"/>
+      <c r="M29" s="46"/>
+      <c r="N29" s="47"/>
+      <c r="O29" s="50"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A30" s="45"/>
-      <c r="B30" s="45"/>
-      <c r="C30" s="45"/>
-      <c r="D30" s="45"/>
-      <c r="E30" s="45"/>
-      <c r="F30" s="55"/>
-      <c r="G30" s="47"/>
-      <c r="H30" s="48"/>
-      <c r="I30" s="49"/>
-      <c r="J30" s="49"/>
-      <c r="K30" s="49"/>
-      <c r="L30" s="49"/>
-      <c r="M30" s="50"/>
-      <c r="N30" s="51"/>
-      <c r="O30" s="54"/>
+      <c r="A30" s="41"/>
+      <c r="B30" s="41"/>
+      <c r="C30" s="41"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="51"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="44"/>
+      <c r="I30" s="45"/>
+      <c r="J30" s="45"/>
+      <c r="K30" s="45"/>
+      <c r="L30" s="45"/>
+      <c r="M30" s="46"/>
+      <c r="N30" s="47"/>
+      <c r="O30" s="50"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A31" s="45"/>
-      <c r="B31" s="45"/>
-      <c r="C31" s="45"/>
-      <c r="D31" s="45"/>
-      <c r="E31" s="45"/>
-      <c r="F31" s="55"/>
-      <c r="G31" s="47"/>
-      <c r="H31" s="48"/>
-      <c r="I31" s="49"/>
-      <c r="J31" s="49"/>
-      <c r="K31" s="49"/>
-      <c r="L31" s="49"/>
-      <c r="M31" s="50"/>
-      <c r="N31" s="51"/>
-      <c r="O31" s="54"/>
+      <c r="A31" s="41"/>
+      <c r="B31" s="41"/>
+      <c r="C31" s="41"/>
+      <c r="D31" s="41"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="51"/>
+      <c r="G31" s="43"/>
+      <c r="H31" s="44"/>
+      <c r="I31" s="45"/>
+      <c r="J31" s="45"/>
+      <c r="K31" s="45"/>
+      <c r="L31" s="45"/>
+      <c r="M31" s="46"/>
+      <c r="N31" s="47"/>
+      <c r="O31" s="50"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A32" s="45"/>
-      <c r="B32" s="45"/>
-      <c r="C32" s="45"/>
-      <c r="D32" s="45"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="55"/>
-      <c r="G32" s="47"/>
-      <c r="H32" s="48"/>
-      <c r="I32" s="49"/>
-      <c r="J32" s="49"/>
-      <c r="K32" s="49"/>
-      <c r="L32" s="49"/>
-      <c r="M32" s="50"/>
-      <c r="N32" s="51"/>
-      <c r="O32" s="54"/>
+      <c r="A32" s="41"/>
+      <c r="B32" s="41"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="51"/>
+      <c r="G32" s="43"/>
+      <c r="H32" s="44"/>
+      <c r="I32" s="45"/>
+      <c r="J32" s="45"/>
+      <c r="K32" s="45"/>
+      <c r="L32" s="45"/>
+      <c r="M32" s="46"/>
+      <c r="N32" s="47"/>
+      <c r="O32" s="50"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A33" s="45"/>
-      <c r="B33" s="45"/>
-      <c r="C33" s="45"/>
-      <c r="D33" s="45"/>
-      <c r="E33" s="45"/>
-      <c r="F33" s="55"/>
-      <c r="G33" s="47"/>
-      <c r="H33" s="48"/>
-      <c r="I33" s="49"/>
-      <c r="J33" s="49"/>
-      <c r="K33" s="49"/>
-      <c r="L33" s="49"/>
-      <c r="M33" s="50"/>
-      <c r="N33" s="51"/>
-      <c r="O33" s="54"/>
+      <c r="A33" s="41"/>
+      <c r="B33" s="41"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="41"/>
+      <c r="F33" s="51"/>
+      <c r="G33" s="43"/>
+      <c r="H33" s="44"/>
+      <c r="I33" s="45"/>
+      <c r="J33" s="45"/>
+      <c r="K33" s="45"/>
+      <c r="L33" s="45"/>
+      <c r="M33" s="46"/>
+      <c r="N33" s="47"/>
+      <c r="O33" s="50"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A34" s="45"/>
-      <c r="B34" s="45"/>
-      <c r="C34" s="45"/>
-      <c r="D34" s="45"/>
-      <c r="E34" s="45"/>
-      <c r="F34" s="55"/>
-      <c r="G34" s="47"/>
-      <c r="H34" s="48"/>
-      <c r="I34" s="49"/>
-      <c r="J34" s="49"/>
-      <c r="K34" s="49"/>
-      <c r="L34" s="49"/>
-      <c r="M34" s="50"/>
-      <c r="N34" s="51"/>
-      <c r="O34" s="54"/>
+      <c r="A34" s="41"/>
+      <c r="B34" s="41"/>
+      <c r="C34" s="41"/>
+      <c r="D34" s="41"/>
+      <c r="E34" s="41"/>
+      <c r="F34" s="51"/>
+      <c r="G34" s="43"/>
+      <c r="H34" s="44"/>
+      <c r="I34" s="45"/>
+      <c r="J34" s="45"/>
+      <c r="K34" s="45"/>
+      <c r="L34" s="45"/>
+      <c r="M34" s="46"/>
+      <c r="N34" s="47"/>
+      <c r="O34" s="50"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A35" s="45"/>
-      <c r="B35" s="45"/>
-      <c r="C35" s="45"/>
-      <c r="D35" s="45"/>
-      <c r="E35" s="45"/>
-      <c r="F35" s="55"/>
-      <c r="G35" s="47"/>
-      <c r="H35" s="48"/>
-      <c r="I35" s="49"/>
-      <c r="J35" s="49"/>
-      <c r="K35" s="49"/>
-      <c r="L35" s="49"/>
-      <c r="M35" s="50"/>
-      <c r="N35" s="51"/>
-      <c r="O35" s="54"/>
+      <c r="A35" s="41"/>
+      <c r="B35" s="41"/>
+      <c r="C35" s="41"/>
+      <c r="D35" s="41"/>
+      <c r="E35" s="41"/>
+      <c r="F35" s="51"/>
+      <c r="G35" s="43"/>
+      <c r="H35" s="44"/>
+      <c r="I35" s="45"/>
+      <c r="J35" s="45"/>
+      <c r="K35" s="45"/>
+      <c r="L35" s="45"/>
+      <c r="M35" s="46"/>
+      <c r="N35" s="47"/>
+      <c r="O35" s="50"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A36" s="45"/>
-      <c r="B36" s="45"/>
-      <c r="C36" s="45"/>
-      <c r="D36" s="45"/>
-      <c r="E36" s="45"/>
-      <c r="F36" s="55"/>
-      <c r="G36" s="47"/>
-      <c r="H36" s="48"/>
-      <c r="I36" s="49"/>
-      <c r="J36" s="49"/>
-      <c r="K36" s="49"/>
-      <c r="L36" s="49"/>
-      <c r="M36" s="50"/>
-      <c r="N36" s="51"/>
-      <c r="O36" s="54"/>
+      <c r="A36" s="41"/>
+      <c r="B36" s="41"/>
+      <c r="C36" s="41"/>
+      <c r="D36" s="41"/>
+      <c r="E36" s="41"/>
+      <c r="F36" s="51"/>
+      <c r="G36" s="43"/>
+      <c r="H36" s="44"/>
+      <c r="I36" s="45"/>
+      <c r="J36" s="45"/>
+      <c r="K36" s="45"/>
+      <c r="L36" s="45"/>
+      <c r="M36" s="46"/>
+      <c r="N36" s="47"/>
+      <c r="O36" s="50"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A37" s="45"/>
-      <c r="B37" s="45"/>
-      <c r="C37" s="45"/>
-      <c r="D37" s="45"/>
-      <c r="E37" s="45"/>
-      <c r="F37" s="55"/>
-      <c r="G37" s="47"/>
-      <c r="H37" s="48"/>
-      <c r="I37" s="49"/>
-      <c r="J37" s="49"/>
-      <c r="K37" s="49"/>
-      <c r="L37" s="49"/>
-      <c r="M37" s="50"/>
-      <c r="N37" s="51"/>
-      <c r="O37" s="54"/>
+      <c r="A37" s="41"/>
+      <c r="B37" s="41"/>
+      <c r="C37" s="41"/>
+      <c r="D37" s="41"/>
+      <c r="E37" s="41"/>
+      <c r="F37" s="51"/>
+      <c r="G37" s="43"/>
+      <c r="H37" s="44"/>
+      <c r="I37" s="45"/>
+      <c r="J37" s="45"/>
+      <c r="K37" s="45"/>
+      <c r="L37" s="45"/>
+      <c r="M37" s="46"/>
+      <c r="N37" s="47"/>
+      <c r="O37" s="50"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A38" s="45"/>
-      <c r="B38" s="45"/>
-      <c r="C38" s="45"/>
-      <c r="D38" s="45"/>
-      <c r="E38" s="45"/>
-      <c r="F38" s="55"/>
-      <c r="G38" s="47"/>
-      <c r="H38" s="48"/>
-      <c r="I38" s="49"/>
-      <c r="J38" s="49"/>
-      <c r="K38" s="49"/>
-      <c r="L38" s="49"/>
-      <c r="M38" s="50"/>
-      <c r="N38" s="51"/>
-      <c r="O38" s="54"/>
+      <c r="A38" s="41"/>
+      <c r="B38" s="41"/>
+      <c r="C38" s="41"/>
+      <c r="D38" s="41"/>
+      <c r="E38" s="41"/>
+      <c r="F38" s="51"/>
+      <c r="G38" s="43"/>
+      <c r="H38" s="44"/>
+      <c r="I38" s="45"/>
+      <c r="J38" s="45"/>
+      <c r="K38" s="45"/>
+      <c r="L38" s="45"/>
+      <c r="M38" s="46"/>
+      <c r="N38" s="47"/>
+      <c r="O38" s="50"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A39" s="45"/>
-      <c r="B39" s="45"/>
-      <c r="C39" s="45"/>
-      <c r="D39" s="45"/>
-      <c r="E39" s="45"/>
-      <c r="F39" s="55"/>
-      <c r="G39" s="47"/>
-      <c r="H39" s="48"/>
-      <c r="I39" s="49"/>
-      <c r="J39" s="49"/>
-      <c r="K39" s="49"/>
-      <c r="L39" s="49"/>
-      <c r="M39" s="50"/>
-      <c r="N39" s="51"/>
-      <c r="O39" s="54"/>
+      <c r="A39" s="41"/>
+      <c r="B39" s="41"/>
+      <c r="C39" s="41"/>
+      <c r="D39" s="41"/>
+      <c r="E39" s="41"/>
+      <c r="F39" s="51"/>
+      <c r="G39" s="43"/>
+      <c r="H39" s="44"/>
+      <c r="I39" s="45"/>
+      <c r="J39" s="45"/>
+      <c r="K39" s="45"/>
+      <c r="L39" s="45"/>
+      <c r="M39" s="46"/>
+      <c r="N39" s="47"/>
+      <c r="O39" s="50"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A40" s="45"/>
-      <c r="B40" s="45"/>
-      <c r="C40" s="45"/>
-      <c r="D40" s="45"/>
-      <c r="E40" s="45"/>
-      <c r="F40" s="55"/>
-      <c r="G40" s="47"/>
-      <c r="H40" s="48"/>
-      <c r="I40" s="49"/>
-      <c r="J40" s="49"/>
-      <c r="K40" s="49"/>
-      <c r="L40" s="49"/>
-      <c r="M40" s="50"/>
-      <c r="N40" s="51"/>
-      <c r="O40" s="54"/>
+      <c r="A40" s="41"/>
+      <c r="B40" s="41"/>
+      <c r="C40" s="41"/>
+      <c r="D40" s="41"/>
+      <c r="E40" s="41"/>
+      <c r="F40" s="51"/>
+      <c r="G40" s="43"/>
+      <c r="H40" s="44"/>
+      <c r="I40" s="45"/>
+      <c r="J40" s="45"/>
+      <c r="K40" s="45"/>
+      <c r="L40" s="45"/>
+      <c r="M40" s="46"/>
+      <c r="N40" s="47"/>
+      <c r="O40" s="50"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A41" s="45"/>
-      <c r="B41" s="45"/>
-      <c r="C41" s="45"/>
-      <c r="D41" s="45"/>
-      <c r="E41" s="45"/>
-      <c r="F41" s="55"/>
-      <c r="G41" s="47"/>
-      <c r="H41" s="48"/>
-      <c r="I41" s="49"/>
-      <c r="J41" s="49"/>
-      <c r="K41" s="49"/>
-      <c r="L41" s="49"/>
-      <c r="M41" s="50"/>
-      <c r="N41" s="51"/>
-      <c r="O41" s="54"/>
+      <c r="A41" s="41"/>
+      <c r="B41" s="41"/>
+      <c r="C41" s="41"/>
+      <c r="D41" s="41"/>
+      <c r="E41" s="41"/>
+      <c r="F41" s="51"/>
+      <c r="G41" s="43"/>
+      <c r="H41" s="44"/>
+      <c r="I41" s="45"/>
+      <c r="J41" s="45"/>
+      <c r="K41" s="45"/>
+      <c r="L41" s="45"/>
+      <c r="M41" s="46"/>
+      <c r="N41" s="47"/>
+      <c r="O41" s="50"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A42" s="45"/>
-      <c r="B42" s="45"/>
-      <c r="C42" s="45"/>
-      <c r="D42" s="45"/>
-      <c r="E42" s="45"/>
-      <c r="F42" s="55"/>
-      <c r="G42" s="47"/>
-      <c r="H42" s="48"/>
-      <c r="I42" s="49"/>
-      <c r="J42" s="49"/>
-      <c r="K42" s="49"/>
-      <c r="L42" s="49"/>
-      <c r="M42" s="50"/>
-      <c r="N42" s="51"/>
-      <c r="O42" s="54"/>
+      <c r="A42" s="41"/>
+      <c r="B42" s="41"/>
+      <c r="C42" s="41"/>
+      <c r="D42" s="41"/>
+      <c r="E42" s="41"/>
+      <c r="F42" s="51"/>
+      <c r="G42" s="43"/>
+      <c r="H42" s="44"/>
+      <c r="I42" s="45"/>
+      <c r="J42" s="45"/>
+      <c r="K42" s="45"/>
+      <c r="L42" s="45"/>
+      <c r="M42" s="46"/>
+      <c r="N42" s="47"/>
+      <c r="O42" s="50"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A43" s="45"/>
-      <c r="B43" s="45"/>
-      <c r="C43" s="45"/>
-      <c r="D43" s="45"/>
-      <c r="E43" s="45"/>
-      <c r="F43" s="55"/>
-      <c r="G43" s="47"/>
-      <c r="H43" s="48"/>
-      <c r="I43" s="49"/>
-      <c r="J43" s="49"/>
-      <c r="K43" s="49"/>
-      <c r="L43" s="49"/>
-      <c r="M43" s="50"/>
-      <c r="N43" s="51"/>
-      <c r="O43" s="54"/>
+      <c r="A43" s="41"/>
+      <c r="B43" s="41"/>
+      <c r="C43" s="41"/>
+      <c r="D43" s="41"/>
+      <c r="E43" s="41"/>
+      <c r="F43" s="51"/>
+      <c r="G43" s="43"/>
+      <c r="H43" s="44"/>
+      <c r="I43" s="45"/>
+      <c r="J43" s="45"/>
+      <c r="K43" s="45"/>
+      <c r="L43" s="45"/>
+      <c r="M43" s="46"/>
+      <c r="N43" s="47"/>
+      <c r="O43" s="50"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A44" s="44"/>
-      <c r="B44" s="44"/>
-      <c r="C44" s="62"/>
-      <c r="D44" s="63"/>
-      <c r="E44" s="57"/>
-      <c r="F44" s="53"/>
-      <c r="G44" s="47"/>
-      <c r="H44" s="48"/>
-      <c r="I44" s="49"/>
-      <c r="J44" s="49"/>
-      <c r="K44" s="49"/>
-      <c r="L44" s="49"/>
-      <c r="M44" s="50"/>
-      <c r="N44" s="51"/>
-      <c r="O44" s="54"/>
+      <c r="A44" s="40"/>
+      <c r="B44" s="40"/>
+      <c r="C44" s="58"/>
+      <c r="D44" s="59"/>
+      <c r="E44" s="53"/>
+      <c r="F44" s="49"/>
+      <c r="G44" s="43"/>
+      <c r="H44" s="44"/>
+      <c r="I44" s="45"/>
+      <c r="J44" s="45"/>
+      <c r="K44" s="45"/>
+      <c r="L44" s="45"/>
+      <c r="M44" s="46"/>
+      <c r="N44" s="47"/>
+      <c r="O44" s="50"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A45" s="45"/>
-      <c r="B45" s="45"/>
-      <c r="C45" s="58"/>
-      <c r="D45" s="59"/>
-      <c r="E45" s="58"/>
-      <c r="F45" s="55"/>
-      <c r="G45" s="47"/>
-      <c r="H45" s="48"/>
-      <c r="I45" s="49"/>
-      <c r="J45" s="49"/>
-      <c r="K45" s="49"/>
-      <c r="L45" s="49"/>
-      <c r="M45" s="50"/>
-      <c r="N45" s="51"/>
-      <c r="O45" s="54"/>
+      <c r="A45" s="41"/>
+      <c r="B45" s="41"/>
+      <c r="C45" s="54"/>
+      <c r="D45" s="55"/>
+      <c r="E45" s="54"/>
+      <c r="F45" s="51"/>
+      <c r="G45" s="43"/>
+      <c r="H45" s="44"/>
+      <c r="I45" s="45"/>
+      <c r="J45" s="45"/>
+      <c r="K45" s="45"/>
+      <c r="L45" s="45"/>
+      <c r="M45" s="46"/>
+      <c r="N45" s="47"/>
+      <c r="O45" s="50"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A46" s="45"/>
-      <c r="B46" s="45"/>
-      <c r="C46" s="58"/>
-      <c r="D46" s="59"/>
-      <c r="E46" s="58"/>
-      <c r="F46" s="55"/>
-      <c r="G46" s="47"/>
-      <c r="H46" s="48"/>
-      <c r="I46" s="49"/>
-      <c r="J46" s="49"/>
-      <c r="K46" s="49"/>
-      <c r="L46" s="49"/>
-      <c r="M46" s="50"/>
-      <c r="N46" s="51"/>
-      <c r="O46" s="54"/>
+      <c r="A46" s="41"/>
+      <c r="B46" s="41"/>
+      <c r="C46" s="54"/>
+      <c r="D46" s="55"/>
+      <c r="E46" s="54"/>
+      <c r="F46" s="51"/>
+      <c r="G46" s="43"/>
+      <c r="H46" s="44"/>
+      <c r="I46" s="45"/>
+      <c r="J46" s="45"/>
+      <c r="K46" s="45"/>
+      <c r="L46" s="45"/>
+      <c r="M46" s="46"/>
+      <c r="N46" s="47"/>
+      <c r="O46" s="50"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A47" s="45"/>
-      <c r="B47" s="45"/>
-      <c r="C47" s="58"/>
-      <c r="D47" s="59"/>
-      <c r="E47" s="58"/>
-      <c r="F47" s="55"/>
-      <c r="G47" s="47"/>
-      <c r="H47" s="48"/>
-      <c r="I47" s="49"/>
-      <c r="J47" s="49"/>
-      <c r="K47" s="49"/>
-      <c r="L47" s="49"/>
-      <c r="M47" s="50"/>
-      <c r="N47" s="51"/>
-      <c r="O47" s="54"/>
+      <c r="A47" s="41"/>
+      <c r="B47" s="41"/>
+      <c r="C47" s="54"/>
+      <c r="D47" s="55"/>
+      <c r="E47" s="54"/>
+      <c r="F47" s="51"/>
+      <c r="G47" s="43"/>
+      <c r="H47" s="44"/>
+      <c r="I47" s="45"/>
+      <c r="J47" s="45"/>
+      <c r="K47" s="45"/>
+      <c r="L47" s="45"/>
+      <c r="M47" s="46"/>
+      <c r="N47" s="47"/>
+      <c r="O47" s="50"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A48" s="45"/>
-      <c r="B48" s="45"/>
-      <c r="C48" s="58"/>
-      <c r="D48" s="59"/>
-      <c r="E48" s="58"/>
-      <c r="F48" s="55"/>
-      <c r="G48" s="47"/>
-      <c r="H48" s="48"/>
-      <c r="I48" s="49"/>
-      <c r="J48" s="49"/>
-      <c r="K48" s="49"/>
-      <c r="L48" s="49"/>
-      <c r="M48" s="50"/>
-      <c r="N48" s="51"/>
-      <c r="O48" s="54"/>
+      <c r="A48" s="41"/>
+      <c r="B48" s="41"/>
+      <c r="C48" s="54"/>
+      <c r="D48" s="55"/>
+      <c r="E48" s="54"/>
+      <c r="F48" s="51"/>
+      <c r="G48" s="43"/>
+      <c r="H48" s="44"/>
+      <c r="I48" s="45"/>
+      <c r="J48" s="45"/>
+      <c r="K48" s="45"/>
+      <c r="L48" s="45"/>
+      <c r="M48" s="46"/>
+      <c r="N48" s="47"/>
+      <c r="O48" s="50"/>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A49" s="45"/>
-      <c r="B49" s="45"/>
-      <c r="C49" s="58"/>
-      <c r="D49" s="58"/>
-      <c r="E49" s="59"/>
-      <c r="F49" s="55"/>
-      <c r="G49" s="47"/>
-      <c r="H49" s="48"/>
-      <c r="I49" s="49"/>
-      <c r="J49" s="49"/>
-      <c r="K49" s="49"/>
-      <c r="L49" s="49"/>
-      <c r="M49" s="50"/>
-      <c r="N49" s="51"/>
-      <c r="O49" s="54"/>
+      <c r="A49" s="41"/>
+      <c r="B49" s="41"/>
+      <c r="C49" s="54"/>
+      <c r="D49" s="54"/>
+      <c r="E49" s="55"/>
+      <c r="F49" s="51"/>
+      <c r="G49" s="43"/>
+      <c r="H49" s="44"/>
+      <c r="I49" s="45"/>
+      <c r="J49" s="45"/>
+      <c r="K49" s="45"/>
+      <c r="L49" s="45"/>
+      <c r="M49" s="46"/>
+      <c r="N49" s="47"/>
+      <c r="O49" s="50"/>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A50" s="45"/>
-      <c r="B50" s="45"/>
-      <c r="C50" s="58"/>
-      <c r="D50" s="58"/>
-      <c r="E50" s="59"/>
-      <c r="F50" s="55"/>
-      <c r="G50" s="47"/>
-      <c r="H50" s="48"/>
-      <c r="I50" s="49"/>
-      <c r="J50" s="49"/>
-      <c r="K50" s="49"/>
-      <c r="L50" s="49"/>
-      <c r="M50" s="50"/>
-      <c r="N50" s="51"/>
-      <c r="O50" s="54"/>
+      <c r="A50" s="41"/>
+      <c r="B50" s="41"/>
+      <c r="C50" s="54"/>
+      <c r="D50" s="54"/>
+      <c r="E50" s="55"/>
+      <c r="F50" s="51"/>
+      <c r="G50" s="43"/>
+      <c r="H50" s="44"/>
+      <c r="I50" s="45"/>
+      <c r="J50" s="45"/>
+      <c r="K50" s="45"/>
+      <c r="L50" s="45"/>
+      <c r="M50" s="46"/>
+      <c r="N50" s="47"/>
+      <c r="O50" s="50"/>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A51" s="45"/>
-      <c r="B51" s="45"/>
-      <c r="C51" s="58"/>
-      <c r="D51" s="58"/>
-      <c r="E51" s="59"/>
-      <c r="F51" s="55"/>
-      <c r="G51" s="47"/>
-      <c r="H51" s="48"/>
-      <c r="I51" s="49"/>
-      <c r="J51" s="49"/>
-      <c r="K51" s="49"/>
-      <c r="L51" s="49"/>
-      <c r="M51" s="50"/>
-      <c r="N51" s="51"/>
-      <c r="O51" s="54"/>
+      <c r="A51" s="41"/>
+      <c r="B51" s="41"/>
+      <c r="C51" s="54"/>
+      <c r="D51" s="54"/>
+      <c r="E51" s="55"/>
+      <c r="F51" s="51"/>
+      <c r="G51" s="43"/>
+      <c r="H51" s="44"/>
+      <c r="I51" s="45"/>
+      <c r="J51" s="45"/>
+      <c r="K51" s="45"/>
+      <c r="L51" s="45"/>
+      <c r="M51" s="46"/>
+      <c r="N51" s="47"/>
+      <c r="O51" s="50"/>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A52" s="45"/>
-      <c r="B52" s="45"/>
-      <c r="C52" s="58"/>
-      <c r="D52" s="58"/>
-      <c r="E52" s="59"/>
-      <c r="F52" s="55"/>
-      <c r="G52" s="47"/>
-      <c r="H52" s="48"/>
-      <c r="I52" s="49"/>
-      <c r="J52" s="49"/>
-      <c r="K52" s="49"/>
-      <c r="L52" s="49"/>
-      <c r="M52" s="50"/>
-      <c r="N52" s="51"/>
-      <c r="O52" s="54"/>
+      <c r="A52" s="41"/>
+      <c r="B52" s="41"/>
+      <c r="C52" s="54"/>
+      <c r="D52" s="54"/>
+      <c r="E52" s="55"/>
+      <c r="F52" s="51"/>
+      <c r="G52" s="43"/>
+      <c r="H52" s="44"/>
+      <c r="I52" s="45"/>
+      <c r="J52" s="45"/>
+      <c r="K52" s="45"/>
+      <c r="L52" s="45"/>
+      <c r="M52" s="46"/>
+      <c r="N52" s="47"/>
+      <c r="O52" s="50"/>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A53" s="45"/>
-      <c r="B53" s="45"/>
-      <c r="C53" s="45"/>
-      <c r="D53" s="45"/>
-      <c r="E53" s="60"/>
-      <c r="F53" s="55"/>
-      <c r="G53" s="47"/>
-      <c r="H53" s="48"/>
-      <c r="I53" s="49"/>
-      <c r="J53" s="49"/>
-      <c r="K53" s="49"/>
-      <c r="L53" s="49"/>
-      <c r="M53" s="50"/>
-      <c r="N53" s="61"/>
-      <c r="O53" s="54"/>
+      <c r="A53" s="41"/>
+      <c r="B53" s="41"/>
+      <c r="C53" s="41"/>
+      <c r="D53" s="41"/>
+      <c r="E53" s="56"/>
+      <c r="F53" s="51"/>
+      <c r="G53" s="43"/>
+      <c r="H53" s="44"/>
+      <c r="I53" s="45"/>
+      <c r="J53" s="45"/>
+      <c r="K53" s="45"/>
+      <c r="L53" s="45"/>
+      <c r="M53" s="46"/>
+      <c r="N53" s="57"/>
+      <c r="O53" s="50"/>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A54" s="65"/>
-      <c r="B54" s="65"/>
-      <c r="C54" s="66"/>
-      <c r="D54" s="66"/>
-      <c r="E54" s="67"/>
-      <c r="F54" s="68"/>
-      <c r="G54" s="69"/>
-      <c r="H54" s="70"/>
-      <c r="I54" s="71"/>
-      <c r="J54" s="71"/>
-      <c r="K54" s="71"/>
-      <c r="L54" s="71"/>
-      <c r="M54" s="72"/>
-      <c r="N54" s="73"/>
-      <c r="O54" s="74"/>
+      <c r="A54" s="61"/>
+      <c r="B54" s="61"/>
+      <c r="C54" s="62"/>
+      <c r="D54" s="62"/>
+      <c r="E54" s="63"/>
+      <c r="F54" s="64"/>
+      <c r="G54" s="65"/>
+      <c r="H54" s="66"/>
+      <c r="I54" s="67"/>
+      <c r="J54" s="67"/>
+      <c r="K54" s="67"/>
+      <c r="L54" s="67"/>
+      <c r="M54" s="68"/>
+      <c r="N54" s="69"/>
+      <c r="O54" s="70"/>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A55" s="65"/>
-      <c r="B55" s="65"/>
-      <c r="C55" s="66"/>
-      <c r="D55" s="66"/>
-      <c r="E55" s="67"/>
-      <c r="F55" s="68"/>
-      <c r="G55" s="69"/>
-      <c r="H55" s="70"/>
-      <c r="I55" s="71"/>
-      <c r="J55" s="71"/>
-      <c r="K55" s="71"/>
-      <c r="L55" s="71"/>
-      <c r="M55" s="72"/>
-      <c r="N55" s="73"/>
-      <c r="O55" s="74"/>
+      <c r="A55" s="61"/>
+      <c r="B55" s="61"/>
+      <c r="C55" s="62"/>
+      <c r="D55" s="62"/>
+      <c r="E55" s="63"/>
+      <c r="F55" s="64"/>
+      <c r="G55" s="65"/>
+      <c r="H55" s="66"/>
+      <c r="I55" s="67"/>
+      <c r="J55" s="67"/>
+      <c r="K55" s="67"/>
+      <c r="L55" s="67"/>
+      <c r="M55" s="68"/>
+      <c r="N55" s="69"/>
+      <c r="O55" s="70"/>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A56" s="65"/>
-      <c r="B56" s="65"/>
-      <c r="C56" s="65"/>
-      <c r="D56" s="65"/>
-      <c r="E56" s="75"/>
-      <c r="F56" s="68"/>
-      <c r="G56" s="69"/>
-      <c r="H56" s="70"/>
-      <c r="I56" s="71"/>
-      <c r="J56" s="71"/>
-      <c r="K56" s="71"/>
-      <c r="L56" s="71"/>
-      <c r="M56" s="72"/>
-      <c r="N56" s="76"/>
-      <c r="O56" s="74"/>
+      <c r="A56" s="61"/>
+      <c r="B56" s="61"/>
+      <c r="C56" s="61"/>
+      <c r="D56" s="61"/>
+      <c r="E56" s="71"/>
+      <c r="F56" s="64"/>
+      <c r="G56" s="65"/>
+      <c r="H56" s="66"/>
+      <c r="I56" s="67"/>
+      <c r="J56" s="67"/>
+      <c r="K56" s="67"/>
+      <c r="L56" s="67"/>
+      <c r="M56" s="68"/>
+      <c r="N56" s="72"/>
+      <c r="O56" s="70"/>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A57" s="77"/>
-      <c r="B57" s="77"/>
-      <c r="C57" s="82"/>
-      <c r="D57" s="82"/>
-      <c r="E57" s="85"/>
-      <c r="F57" s="78"/>
-      <c r="G57" s="77"/>
-      <c r="H57" s="79"/>
-      <c r="I57" s="80"/>
-      <c r="J57" s="80"/>
-      <c r="K57" s="80"/>
-      <c r="L57" s="80"/>
-      <c r="M57" s="77"/>
-      <c r="N57" s="81"/>
-      <c r="O57" s="82"/>
+      <c r="A57" s="73"/>
+      <c r="B57" s="73"/>
+      <c r="C57" s="78"/>
+      <c r="D57" s="78"/>
+      <c r="E57" s="81"/>
+      <c r="F57" s="74"/>
+      <c r="G57" s="73"/>
+      <c r="H57" s="75"/>
+      <c r="I57" s="76"/>
+      <c r="J57" s="76"/>
+      <c r="K57" s="76"/>
+      <c r="L57" s="76"/>
+      <c r="M57" s="73"/>
+      <c r="N57" s="77"/>
+      <c r="O57" s="78"/>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A58" s="77"/>
-      <c r="B58" s="77"/>
-      <c r="C58" s="82"/>
-      <c r="D58" s="82"/>
-      <c r="E58" s="85"/>
-      <c r="F58" s="78"/>
-      <c r="G58" s="77"/>
-      <c r="H58" s="79"/>
-      <c r="I58" s="80"/>
-      <c r="J58" s="80"/>
-      <c r="K58" s="80"/>
-      <c r="L58" s="80"/>
-      <c r="M58" s="77"/>
-      <c r="N58" s="81"/>
-      <c r="O58" s="82"/>
+      <c r="A58" s="73"/>
+      <c r="B58" s="73"/>
+      <c r="C58" s="78"/>
+      <c r="D58" s="78"/>
+      <c r="E58" s="81"/>
+      <c r="F58" s="74"/>
+      <c r="G58" s="73"/>
+      <c r="H58" s="75"/>
+      <c r="I58" s="76"/>
+      <c r="J58" s="76"/>
+      <c r="K58" s="76"/>
+      <c r="L58" s="76"/>
+      <c r="M58" s="73"/>
+      <c r="N58" s="77"/>
+      <c r="O58" s="78"/>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A59" s="77"/>
-      <c r="B59" s="77"/>
-      <c r="C59" s="90"/>
-      <c r="D59" s="82"/>
-      <c r="E59" s="85"/>
-      <c r="F59" s="78"/>
-      <c r="G59" s="77"/>
-      <c r="H59" s="79"/>
-      <c r="I59" s="80"/>
-      <c r="J59" s="80"/>
-      <c r="K59" s="80"/>
-      <c r="L59" s="80"/>
-      <c r="M59" s="77"/>
-      <c r="N59" s="81"/>
-      <c r="O59" s="82"/>
+      <c r="A59" s="73"/>
+      <c r="B59" s="73"/>
+      <c r="C59" s="82"/>
+      <c r="D59" s="78"/>
+      <c r="E59" s="81"/>
+      <c r="F59" s="74"/>
+      <c r="G59" s="73"/>
+      <c r="H59" s="75"/>
+      <c r="I59" s="76"/>
+      <c r="J59" s="76"/>
+      <c r="K59" s="76"/>
+      <c r="L59" s="76"/>
+      <c r="M59" s="73"/>
+      <c r="N59" s="77"/>
+      <c r="O59" s="78"/>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A60" s="83"/>
-      <c r="B60" s="83"/>
-      <c r="C60" s="91"/>
-      <c r="D60" s="84"/>
-      <c r="E60" s="83"/>
-      <c r="F60" s="83"/>
-      <c r="G60" s="83"/>
-      <c r="H60" s="83"/>
-      <c r="I60" s="83"/>
-      <c r="J60" s="83"/>
-      <c r="K60" s="83"/>
-      <c r="L60" s="83"/>
-      <c r="M60" s="83"/>
-      <c r="N60" s="83"/>
-      <c r="O60" s="83"/>
+      <c r="A60" s="79"/>
+      <c r="B60" s="79"/>
+      <c r="C60" s="83"/>
+      <c r="D60" s="80"/>
+      <c r="E60" s="79"/>
+      <c r="F60" s="79"/>
+      <c r="G60" s="79"/>
+      <c r="H60" s="79"/>
+      <c r="I60" s="79"/>
+      <c r="J60" s="79"/>
+      <c r="K60" s="79"/>
+      <c r="L60" s="79"/>
+      <c r="M60" s="79"/>
+      <c r="N60" s="79"/>
+      <c r="O60" s="79"/>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A61" s="83"/>
-      <c r="B61" s="83"/>
-      <c r="C61" s="91"/>
-      <c r="D61" s="83"/>
-      <c r="E61" s="83"/>
-      <c r="F61" s="83"/>
-      <c r="G61" s="83"/>
-      <c r="H61" s="83"/>
-      <c r="I61" s="83"/>
-      <c r="J61" s="83"/>
-      <c r="K61" s="83"/>
-      <c r="L61" s="83"/>
-      <c r="M61" s="83"/>
-      <c r="N61" s="83"/>
-      <c r="O61" s="83"/>
+      <c r="A61" s="79"/>
+      <c r="B61" s="79"/>
+      <c r="C61" s="83"/>
+      <c r="D61" s="79"/>
+      <c r="E61" s="79"/>
+      <c r="F61" s="79"/>
+      <c r="G61" s="79"/>
+      <c r="H61" s="79"/>
+      <c r="I61" s="79"/>
+      <c r="J61" s="79"/>
+      <c r="K61" s="79"/>
+      <c r="L61" s="79"/>
+      <c r="M61" s="79"/>
+      <c r="N61" s="79"/>
+      <c r="O61" s="79"/>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A62" s="83"/>
-      <c r="B62" s="83"/>
-      <c r="C62" s="91"/>
-      <c r="D62" s="84"/>
-      <c r="E62" s="83"/>
-      <c r="F62" s="83"/>
-      <c r="G62" s="83"/>
-      <c r="H62" s="83"/>
-      <c r="I62" s="83"/>
-      <c r="J62" s="83"/>
-      <c r="K62" s="83"/>
-      <c r="L62" s="83"/>
-      <c r="M62" s="83"/>
-      <c r="N62" s="83"/>
-      <c r="O62" s="83"/>
+      <c r="A62" s="79"/>
+      <c r="B62" s="79"/>
+      <c r="C62" s="83"/>
+      <c r="D62" s="80"/>
+      <c r="E62" s="79"/>
+      <c r="F62" s="79"/>
+      <c r="G62" s="79"/>
+      <c r="H62" s="79"/>
+      <c r="I62" s="79"/>
+      <c r="J62" s="79"/>
+      <c r="K62" s="79"/>
+      <c r="L62" s="79"/>
+      <c r="M62" s="79"/>
+      <c r="N62" s="79"/>
+      <c r="O62" s="79"/>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A63" s="83"/>
-      <c r="B63" s="83"/>
-      <c r="C63" s="91"/>
-      <c r="D63" s="83"/>
-      <c r="E63" s="83"/>
-      <c r="F63" s="83"/>
-      <c r="G63" s="83"/>
-      <c r="H63" s="83"/>
-      <c r="I63" s="83"/>
-      <c r="J63" s="83"/>
-      <c r="K63" s="83"/>
-      <c r="L63" s="83"/>
-      <c r="M63" s="83"/>
-      <c r="N63" s="83"/>
-      <c r="O63" s="83"/>
+      <c r="A63" s="79"/>
+      <c r="B63" s="79"/>
+      <c r="C63" s="83"/>
+      <c r="D63" s="79"/>
+      <c r="E63" s="79"/>
+      <c r="F63" s="79"/>
+      <c r="G63" s="79"/>
+      <c r="H63" s="79"/>
+      <c r="I63" s="79"/>
+      <c r="J63" s="79"/>
+      <c r="K63" s="79"/>
+      <c r="L63" s="79"/>
+      <c r="M63" s="79"/>
+      <c r="N63" s="79"/>
+      <c r="O63" s="79"/>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A64" s="83"/>
-      <c r="B64" s="83"/>
-      <c r="C64" s="91"/>
-      <c r="D64" s="84"/>
-      <c r="E64" s="83"/>
-      <c r="F64" s="83"/>
-      <c r="G64" s="83"/>
-      <c r="H64" s="83"/>
-      <c r="I64" s="83"/>
-      <c r="J64" s="83"/>
-      <c r="K64" s="83"/>
-      <c r="L64" s="83"/>
-      <c r="M64" s="83"/>
-      <c r="N64" s="83"/>
-      <c r="O64" s="83"/>
+      <c r="A64" s="79"/>
+      <c r="B64" s="79"/>
+      <c r="C64" s="83"/>
+      <c r="D64" s="80"/>
+      <c r="E64" s="79"/>
+      <c r="F64" s="79"/>
+      <c r="G64" s="79"/>
+      <c r="H64" s="79"/>
+      <c r="I64" s="79"/>
+      <c r="J64" s="79"/>
+      <c r="K64" s="79"/>
+      <c r="L64" s="79"/>
+      <c r="M64" s="79"/>
+      <c r="N64" s="79"/>
+      <c r="O64" s="79"/>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A65" s="83"/>
-      <c r="B65" s="83"/>
-      <c r="C65" s="91"/>
-      <c r="D65" s="84"/>
-      <c r="E65" s="83"/>
-      <c r="F65" s="83"/>
-      <c r="G65" s="83"/>
-      <c r="H65" s="83"/>
-      <c r="I65" s="83"/>
-      <c r="J65" s="83"/>
-      <c r="K65" s="83"/>
-      <c r="L65" s="83"/>
-      <c r="M65" s="83"/>
-      <c r="N65" s="83"/>
-      <c r="O65" s="83"/>
+      <c r="A65" s="79"/>
+      <c r="B65" s="79"/>
+      <c r="C65" s="83"/>
+      <c r="D65" s="80"/>
+      <c r="E65" s="79"/>
+      <c r="F65" s="79"/>
+      <c r="G65" s="79"/>
+      <c r="H65" s="79"/>
+      <c r="I65" s="79"/>
+      <c r="J65" s="79"/>
+      <c r="K65" s="79"/>
+      <c r="L65" s="79"/>
+      <c r="M65" s="79"/>
+      <c r="N65" s="79"/>
+      <c r="O65" s="79"/>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A66" s="83"/>
-      <c r="B66" s="83"/>
-      <c r="C66" s="91"/>
-      <c r="D66" s="84"/>
-      <c r="E66" s="83"/>
-      <c r="F66" s="83"/>
-      <c r="G66" s="83"/>
-      <c r="H66" s="83"/>
-      <c r="I66" s="83"/>
-      <c r="J66" s="83"/>
-      <c r="K66" s="83"/>
-      <c r="L66" s="83"/>
-      <c r="M66" s="83"/>
-      <c r="N66" s="83"/>
-      <c r="O66" s="83"/>
+      <c r="A66" s="79"/>
+      <c r="B66" s="79"/>
+      <c r="C66" s="83"/>
+      <c r="D66" s="80"/>
+      <c r="E66" s="79"/>
+      <c r="F66" s="79"/>
+      <c r="G66" s="79"/>
+      <c r="H66" s="79"/>
+      <c r="I66" s="79"/>
+      <c r="J66" s="79"/>
+      <c r="K66" s="79"/>
+      <c r="L66" s="79"/>
+      <c r="M66" s="79"/>
+      <c r="N66" s="79"/>
+      <c r="O66" s="79"/>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A67" s="83"/>
-      <c r="B67" s="83"/>
-      <c r="C67" s="91"/>
-      <c r="D67" s="84"/>
-      <c r="E67" s="83"/>
-      <c r="F67" s="83"/>
-      <c r="G67" s="83"/>
-      <c r="H67" s="83"/>
-      <c r="I67" s="83"/>
-      <c r="J67" s="83"/>
-      <c r="K67" s="83"/>
-      <c r="L67" s="83"/>
-      <c r="M67" s="83"/>
-      <c r="N67" s="83"/>
-      <c r="O67" s="83"/>
+      <c r="A67" s="79"/>
+      <c r="B67" s="79"/>
+      <c r="C67" s="83"/>
+      <c r="D67" s="80"/>
+      <c r="E67" s="79"/>
+      <c r="F67" s="79"/>
+      <c r="G67" s="79"/>
+      <c r="H67" s="79"/>
+      <c r="I67" s="79"/>
+      <c r="J67" s="79"/>
+      <c r="K67" s="79"/>
+      <c r="L67" s="79"/>
+      <c r="M67" s="79"/>
+      <c r="N67" s="79"/>
+      <c r="O67" s="79"/>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A68" s="83"/>
-      <c r="B68" s="83"/>
-      <c r="C68" s="84"/>
-      <c r="D68" s="84"/>
-      <c r="E68" s="83"/>
-      <c r="F68" s="83"/>
-      <c r="G68" s="83"/>
-      <c r="H68" s="83"/>
-      <c r="I68" s="83"/>
-      <c r="J68" s="83"/>
-      <c r="K68" s="83"/>
-      <c r="L68" s="83"/>
-      <c r="M68" s="83"/>
-      <c r="N68" s="83"/>
-      <c r="O68" s="83"/>
+      <c r="A68" s="79"/>
+      <c r="B68" s="79"/>
+      <c r="C68" s="80"/>
+      <c r="D68" s="80"/>
+      <c r="E68" s="79"/>
+      <c r="F68" s="79"/>
+      <c r="G68" s="79"/>
+      <c r="H68" s="79"/>
+      <c r="I68" s="79"/>
+      <c r="J68" s="79"/>
+      <c r="K68" s="79"/>
+      <c r="L68" s="79"/>
+      <c r="M68" s="79"/>
+      <c r="N68" s="79"/>
+      <c r="O68" s="79"/>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A69" s="83"/>
-      <c r="B69" s="83"/>
-      <c r="C69" s="84"/>
-      <c r="D69" s="84"/>
-      <c r="E69" s="83"/>
-      <c r="F69" s="83"/>
-      <c r="G69" s="83"/>
-      <c r="H69" s="83"/>
-      <c r="I69" s="83"/>
-      <c r="J69" s="83"/>
-      <c r="K69" s="83"/>
-      <c r="L69" s="83"/>
-      <c r="M69" s="83"/>
-      <c r="N69" s="83"/>
-      <c r="O69" s="83"/>
+      <c r="A69" s="79"/>
+      <c r="B69" s="79"/>
+      <c r="C69" s="80"/>
+      <c r="D69" s="80"/>
+      <c r="E69" s="79"/>
+      <c r="F69" s="79"/>
+      <c r="G69" s="79"/>
+      <c r="H69" s="79"/>
+      <c r="I69" s="79"/>
+      <c r="J69" s="79"/>
+      <c r="K69" s="79"/>
+      <c r="L69" s="79"/>
+      <c r="M69" s="79"/>
+      <c r="N69" s="79"/>
+      <c r="O69" s="79"/>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A70" s="83"/>
-      <c r="B70" s="83"/>
-      <c r="C70" s="84"/>
-      <c r="D70" s="84"/>
-      <c r="E70" s="83"/>
-      <c r="F70" s="83"/>
-      <c r="G70" s="83"/>
-      <c r="H70" s="83"/>
-      <c r="I70" s="83"/>
-      <c r="J70" s="83"/>
-      <c r="K70" s="83"/>
-      <c r="L70" s="83"/>
-      <c r="M70" s="83"/>
-      <c r="N70" s="83"/>
-      <c r="O70" s="83"/>
+      <c r="A70" s="79"/>
+      <c r="B70" s="79"/>
+      <c r="C70" s="80"/>
+      <c r="D70" s="80"/>
+      <c r="E70" s="79"/>
+      <c r="F70" s="79"/>
+      <c r="G70" s="79"/>
+      <c r="H70" s="79"/>
+      <c r="I70" s="79"/>
+      <c r="J70" s="79"/>
+      <c r="K70" s="79"/>
+      <c r="L70" s="79"/>
+      <c r="M70" s="79"/>
+      <c r="N70" s="79"/>
+      <c r="O70" s="79"/>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A71" s="83"/>
-      <c r="B71" s="83"/>
-      <c r="C71" s="84"/>
-      <c r="D71" s="84"/>
-      <c r="E71" s="83"/>
-      <c r="F71" s="83"/>
-      <c r="G71" s="83"/>
-      <c r="H71" s="83"/>
-      <c r="I71" s="83"/>
-      <c r="J71" s="83"/>
-      <c r="K71" s="83"/>
-      <c r="L71" s="83"/>
-      <c r="M71" s="83"/>
-      <c r="N71" s="83"/>
-      <c r="O71" s="83"/>
+      <c r="A71" s="79"/>
+      <c r="B71" s="79"/>
+      <c r="C71" s="80"/>
+      <c r="D71" s="80"/>
+      <c r="E71" s="79"/>
+      <c r="F71" s="79"/>
+      <c r="G71" s="79"/>
+      <c r="H71" s="79"/>
+      <c r="I71" s="79"/>
+      <c r="J71" s="79"/>
+      <c r="K71" s="79"/>
+      <c r="L71" s="79"/>
+      <c r="M71" s="79"/>
+      <c r="N71" s="79"/>
+      <c r="O71" s="79"/>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A72" s="83"/>
-      <c r="B72" s="83"/>
-      <c r="C72" s="84"/>
-      <c r="D72" s="84"/>
-      <c r="E72" s="83"/>
-      <c r="F72" s="83"/>
-      <c r="G72" s="83"/>
-      <c r="H72" s="83"/>
-      <c r="I72" s="83"/>
-      <c r="J72" s="83"/>
-      <c r="K72" s="83"/>
-      <c r="L72" s="83"/>
-      <c r="M72" s="83"/>
-      <c r="N72" s="83"/>
-      <c r="O72" s="83"/>
+      <c r="A72" s="79"/>
+      <c r="B72" s="79"/>
+      <c r="C72" s="80"/>
+      <c r="D72" s="80"/>
+      <c r="E72" s="79"/>
+      <c r="F72" s="79"/>
+      <c r="G72" s="79"/>
+      <c r="H72" s="79"/>
+      <c r="I72" s="79"/>
+      <c r="J72" s="79"/>
+      <c r="K72" s="79"/>
+      <c r="L72" s="79"/>
+      <c r="M72" s="79"/>
+      <c r="N72" s="79"/>
+      <c r="O72" s="79"/>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A73" s="83"/>
-      <c r="B73" s="83"/>
-      <c r="C73" s="84"/>
-      <c r="D73" s="84"/>
-      <c r="E73" s="83"/>
-      <c r="F73" s="83"/>
-      <c r="G73" s="83"/>
-      <c r="H73" s="83"/>
-      <c r="I73" s="83"/>
-      <c r="J73" s="83"/>
-      <c r="K73" s="83"/>
-      <c r="L73" s="83"/>
-      <c r="M73" s="83"/>
-      <c r="N73" s="83"/>
-      <c r="O73" s="83"/>
+      <c r="A73" s="79"/>
+      <c r="B73" s="79"/>
+      <c r="C73" s="80"/>
+      <c r="D73" s="80"/>
+      <c r="E73" s="79"/>
+      <c r="F73" s="79"/>
+      <c r="G73" s="79"/>
+      <c r="H73" s="79"/>
+      <c r="I73" s="79"/>
+      <c r="J73" s="79"/>
+      <c r="K73" s="79"/>
+      <c r="L73" s="79"/>
+      <c r="M73" s="79"/>
+      <c r="N73" s="79"/>
+      <c r="O73" s="79"/>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A74" s="83"/>
-      <c r="B74" s="83"/>
-      <c r="C74" s="84"/>
-      <c r="D74" s="84"/>
-      <c r="E74" s="83"/>
-      <c r="F74" s="83"/>
-      <c r="G74" s="83"/>
-      <c r="H74" s="83"/>
-      <c r="I74" s="83"/>
-      <c r="J74" s="83"/>
-      <c r="K74" s="83"/>
-      <c r="L74" s="83"/>
-      <c r="M74" s="83"/>
-      <c r="N74" s="83"/>
-      <c r="O74" s="83"/>
+      <c r="A74" s="79"/>
+      <c r="B74" s="79"/>
+      <c r="C74" s="80"/>
+      <c r="D74" s="80"/>
+      <c r="E74" s="79"/>
+      <c r="F74" s="79"/>
+      <c r="G74" s="79"/>
+      <c r="H74" s="79"/>
+      <c r="I74" s="79"/>
+      <c r="J74" s="79"/>
+      <c r="K74" s="79"/>
+      <c r="L74" s="79"/>
+      <c r="M74" s="79"/>
+      <c r="N74" s="79"/>
+      <c r="O74" s="79"/>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A75" s="83"/>
-      <c r="B75" s="83"/>
-      <c r="C75" s="84"/>
-      <c r="D75" s="84"/>
-      <c r="E75" s="83"/>
-      <c r="F75" s="83"/>
-      <c r="G75" s="83"/>
-      <c r="H75" s="83"/>
-      <c r="I75" s="83"/>
-      <c r="J75" s="83"/>
-      <c r="K75" s="83"/>
-      <c r="L75" s="83"/>
-      <c r="M75" s="83"/>
-      <c r="N75" s="83"/>
-      <c r="O75" s="83"/>
+      <c r="A75" s="79"/>
+      <c r="B75" s="79"/>
+      <c r="C75" s="80"/>
+      <c r="D75" s="80"/>
+      <c r="E75" s="79"/>
+      <c r="F75" s="79"/>
+      <c r="G75" s="79"/>
+      <c r="H75" s="79"/>
+      <c r="I75" s="79"/>
+      <c r="J75" s="79"/>
+      <c r="K75" s="79"/>
+      <c r="L75" s="79"/>
+      <c r="M75" s="79"/>
+      <c r="N75" s="79"/>
+      <c r="O75" s="79"/>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A76" s="83"/>
-      <c r="B76" s="83"/>
-      <c r="C76" s="84"/>
-      <c r="D76" s="84"/>
-      <c r="E76" s="83"/>
-      <c r="F76" s="83"/>
-      <c r="G76" s="83"/>
-      <c r="H76" s="83"/>
-      <c r="I76" s="83"/>
-      <c r="J76" s="83"/>
-      <c r="K76" s="83"/>
-      <c r="L76" s="83"/>
-      <c r="M76" s="83"/>
-      <c r="N76" s="83"/>
-      <c r="O76" s="83"/>
+      <c r="A76" s="79"/>
+      <c r="B76" s="79"/>
+      <c r="C76" s="80"/>
+      <c r="D76" s="80"/>
+      <c r="E76" s="79"/>
+      <c r="F76" s="79"/>
+      <c r="G76" s="79"/>
+      <c r="H76" s="79"/>
+      <c r="I76" s="79"/>
+      <c r="J76" s="79"/>
+      <c r="K76" s="79"/>
+      <c r="L76" s="79"/>
+      <c r="M76" s="79"/>
+      <c r="N76" s="79"/>
+      <c r="O76" s="79"/>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A77" s="83"/>
-      <c r="B77" s="83"/>
-      <c r="C77" s="84"/>
-      <c r="D77" s="84"/>
-      <c r="E77" s="83"/>
-      <c r="F77" s="83"/>
-      <c r="G77" s="83"/>
-      <c r="H77" s="83"/>
-      <c r="I77" s="83"/>
-      <c r="J77" s="83"/>
-      <c r="K77" s="83"/>
-      <c r="L77" s="83"/>
-      <c r="M77" s="83"/>
-      <c r="N77" s="83"/>
-      <c r="O77" s="83"/>
+      <c r="A77" s="79"/>
+      <c r="B77" s="79"/>
+      <c r="C77" s="80"/>
+      <c r="D77" s="80"/>
+      <c r="E77" s="79"/>
+      <c r="F77" s="79"/>
+      <c r="G77" s="79"/>
+      <c r="H77" s="79"/>
+      <c r="I77" s="79"/>
+      <c r="J77" s="79"/>
+      <c r="K77" s="79"/>
+      <c r="L77" s="79"/>
+      <c r="M77" s="79"/>
+      <c r="N77" s="79"/>
+      <c r="O77" s="79"/>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A78" s="83"/>
-      <c r="B78" s="83"/>
-      <c r="C78" s="84"/>
-      <c r="D78" s="84"/>
-      <c r="E78" s="83"/>
-      <c r="F78" s="83"/>
-      <c r="G78" s="83"/>
-      <c r="H78" s="83"/>
-      <c r="I78" s="83"/>
-      <c r="J78" s="83"/>
-      <c r="K78" s="83"/>
-      <c r="L78" s="83"/>
-      <c r="M78" s="83"/>
-      <c r="N78" s="83"/>
-      <c r="O78" s="83"/>
+      <c r="A78" s="79"/>
+      <c r="B78" s="79"/>
+      <c r="C78" s="80"/>
+      <c r="D78" s="80"/>
+      <c r="E78" s="79"/>
+      <c r="F78" s="79"/>
+      <c r="G78" s="79"/>
+      <c r="H78" s="79"/>
+      <c r="I78" s="79"/>
+      <c r="J78" s="79"/>
+      <c r="K78" s="79"/>
+      <c r="L78" s="79"/>
+      <c r="M78" s="79"/>
+      <c r="N78" s="79"/>
+      <c r="O78" s="79"/>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A79" s="83"/>
-      <c r="B79" s="83"/>
-      <c r="C79" s="84"/>
-      <c r="D79" s="84"/>
-      <c r="E79" s="83"/>
-      <c r="F79" s="83"/>
-      <c r="G79" s="83"/>
-      <c r="H79" s="83"/>
-      <c r="I79" s="83"/>
-      <c r="J79" s="83"/>
-      <c r="K79" s="83"/>
-      <c r="L79" s="83"/>
-      <c r="M79" s="83"/>
-      <c r="N79" s="83"/>
-      <c r="O79" s="83"/>
+      <c r="A79" s="79"/>
+      <c r="B79" s="79"/>
+      <c r="C79" s="80"/>
+      <c r="D79" s="80"/>
+      <c r="E79" s="79"/>
+      <c r="F79" s="79"/>
+      <c r="G79" s="79"/>
+      <c r="H79" s="79"/>
+      <c r="I79" s="79"/>
+      <c r="J79" s="79"/>
+      <c r="K79" s="79"/>
+      <c r="L79" s="79"/>
+      <c r="M79" s="79"/>
+      <c r="N79" s="79"/>
+      <c r="O79" s="79"/>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A80" s="83"/>
-      <c r="B80" s="83"/>
-      <c r="C80" s="84"/>
-      <c r="D80" s="84"/>
-      <c r="E80" s="83"/>
-      <c r="F80" s="83"/>
-      <c r="G80" s="83"/>
-      <c r="H80" s="83"/>
-      <c r="I80" s="83"/>
-      <c r="J80" s="83"/>
-      <c r="K80" s="83"/>
-      <c r="L80" s="83"/>
-      <c r="M80" s="83"/>
-      <c r="N80" s="83"/>
-      <c r="O80" s="83"/>
+      <c r="A80" s="79"/>
+      <c r="B80" s="79"/>
+      <c r="C80" s="80"/>
+      <c r="D80" s="80"/>
+      <c r="E80" s="79"/>
+      <c r="F80" s="79"/>
+      <c r="G80" s="79"/>
+      <c r="H80" s="79"/>
+      <c r="I80" s="79"/>
+      <c r="J80" s="79"/>
+      <c r="K80" s="79"/>
+      <c r="L80" s="79"/>
+      <c r="M80" s="79"/>
+      <c r="N80" s="79"/>
+      <c r="O80" s="79"/>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A81" s="83"/>
-      <c r="B81" s="83"/>
-      <c r="C81" s="84"/>
-      <c r="D81" s="84"/>
-      <c r="E81" s="83"/>
-      <c r="F81" s="83"/>
-      <c r="G81" s="83"/>
-      <c r="H81" s="83"/>
-      <c r="I81" s="83"/>
-      <c r="J81" s="83"/>
-      <c r="K81" s="83"/>
-      <c r="L81" s="83"/>
-      <c r="M81" s="83"/>
-      <c r="N81" s="83"/>
-      <c r="O81" s="83"/>
+      <c r="A81" s="79"/>
+      <c r="B81" s="79"/>
+      <c r="C81" s="80"/>
+      <c r="D81" s="80"/>
+      <c r="E81" s="79"/>
+      <c r="F81" s="79"/>
+      <c r="G81" s="79"/>
+      <c r="H81" s="79"/>
+      <c r="I81" s="79"/>
+      <c r="J81" s="79"/>
+      <c r="K81" s="79"/>
+      <c r="L81" s="79"/>
+      <c r="M81" s="79"/>
+      <c r="N81" s="79"/>
+      <c r="O81" s="79"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="M1:O1"/>
     <mergeCell ref="N5:O5"/>
-    <mergeCell ref="C7:L7"/>
+    <mergeCell ref="A7:O7"/>
   </mergeCells>
   <conditionalFormatting sqref="A18">
     <cfRule type="duplicateValues" dxfId="14" priority="19" stopIfTrue="1"/>
@@ -2550,7 +2531,7 @@
   <conditionalFormatting sqref="A54:A55">
     <cfRule type="duplicateValues" dxfId="8" priority="2" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A53:B53 A1:B4 A6:B9 A5 A56:B59">
+  <conditionalFormatting sqref="A53:B53 A1:B4 A6:B6 A5 A56:B59 A8:B9">
     <cfRule type="duplicateValues" dxfId="7" priority="25" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
